--- a/graficos/ultimate gain dados.xlsx
+++ b/graficos/ultimate gain dados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="27870" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Kcr:</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>Pcr:</t>
+  </si>
+  <si>
+    <t>Ki:</t>
+  </si>
+  <si>
+    <t>Kd:</t>
   </si>
 </sst>
 </file>
@@ -300,11 +306,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-479365728"/>
-        <c:axId val="-479363552"/>
+        <c:axId val="1406111984"/>
+        <c:axId val="1406113072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-479365728"/>
+        <c:axId val="1406111984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -412,12 +418,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-479363552"/>
+        <c:crossAx val="1406113072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-479363552"/>
+        <c:axId val="1406113072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,7 +543,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-479365728"/>
+        <c:crossAx val="1406111984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1440,15 +1446,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2808"/>
+  <dimension ref="A1:W2808"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>-19.559999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>9.4435099999999994E-2</v>
       </c>
@@ -1475,8 +1481,23 @@
       <c r="F2" s="1">
         <v>-1.1100000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>-31.42</v>
+      </c>
+      <c r="U2">
+        <v>0.75</v>
+      </c>
+      <c r="V2">
+        <v>0.01</v>
+      </c>
+      <c r="W2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.14117489999999999</v>
       </c>
@@ -1489,8 +1510,14 @@
       <c r="F3" s="1">
         <v>-1.36</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R3" s="1">
+        <v>0.50002820000000003</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-5.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.16919310000000001</v>
       </c>
@@ -1507,10 +1534,16 @@
         <v>4</v>
       </c>
       <c r="J4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1.031309</v>
+      </c>
+      <c r="S4" s="1">
+        <v>33.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.2002138</v>
       </c>
@@ -1527,10 +1560,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1.5000776</v>
+      </c>
+      <c r="S5" s="1">
+        <v>30.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.22823389999999999</v>
       </c>
@@ -1545,8 +1584,14 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R6" s="1">
+        <v>2.0469884</v>
+      </c>
+      <c r="S6" s="1">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.26025619999999999</v>
       </c>
@@ -1564,10 +1609,16 @@
       </c>
       <c r="J7" s="2">
         <f>J5*0.6</f>
-        <v>0.44999999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.36</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2.5157576000000001</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-27.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.28832390000000002</v>
       </c>
@@ -1585,10 +1636,23 @@
       </c>
       <c r="J8" s="2">
         <f>J4*0.5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <f>J7/J8</f>
+        <v>0.24</v>
+      </c>
+      <c r="R8" s="1">
+        <v>3.0314097000000002</v>
+      </c>
+      <c r="S8" s="1">
+        <v>-12.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.34139330000000001</v>
       </c>
@@ -1606,10 +1670,23 @@
       </c>
       <c r="J9" s="2">
         <f>0.125*J4</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.375</v>
+      </c>
+      <c r="L9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <f>J7*J9</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="R9" s="1">
+        <v>3.5314551999999999</v>
+      </c>
+      <c r="S9" s="1">
+        <v>15.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.38316339999999999</v>
       </c>
@@ -1622,8 +1699,14 @@
       <c r="F10" s="1">
         <v>29.19</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R10" s="1">
+        <v>4.0314736</v>
+      </c>
+      <c r="S10" s="1">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.43003989999999997</v>
       </c>
@@ -1636,8 +1719,14 @@
       <c r="F11" s="1">
         <v>6.69</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R11" s="1">
+        <v>4.5471132000000001</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-9.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.47691679999999997</v>
       </c>
@@ -1650,8 +1739,14 @@
       <c r="F12" s="1">
         <v>-30.08</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R12" s="1">
+        <v>5.0572232000000001</v>
+      </c>
+      <c r="S12" s="1">
+        <v>-3.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.54759049999999998</v>
       </c>
@@ -1664,8 +1759,14 @@
       <c r="F13" s="1">
         <v>-12.27</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R13" s="1">
+        <v>5.5572499999999998</v>
+      </c>
+      <c r="S13" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.60069779999999995</v>
       </c>
@@ -1678,8 +1779,14 @@
       <c r="F14" s="1">
         <v>28.07</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R14" s="1">
+        <v>6.0572783000000001</v>
+      </c>
+      <c r="S14" s="1">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.67190559999999999</v>
       </c>
@@ -1692,8 +1799,14 @@
       <c r="F15" s="1">
         <v>12.64</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R15" s="1">
+        <v>6.5729258000000002</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.73894939999999998</v>
       </c>
@@ -1706,8 +1819,14 @@
       <c r="F16" s="1">
         <v>-28.64</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R16" s="1">
+        <v>7.0729517</v>
+      </c>
+      <c r="S16" s="1">
+        <v>-1.07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.80155759999999998</v>
       </c>
@@ -1720,8 +1839,14 @@
       <c r="F17" s="1">
         <v>-15.97</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R17" s="1">
+        <v>7.5886043000000001</v>
+      </c>
+      <c r="S17" s="1">
+        <v>-2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.93312609999999996</v>
       </c>
@@ -1734,8 +1859,14 @@
       <c r="F18" s="1">
         <v>27.75</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R18" s="1">
+        <v>8.0886254999999991</v>
+      </c>
+      <c r="S18" s="1">
+        <v>-1.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1.0278670999999999</v>
       </c>
@@ -1748,8 +1879,14 @@
       <c r="F19" s="1">
         <v>16.04</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R19" s="1">
+        <v>8.5886555999999992</v>
+      </c>
+      <c r="S19" s="1">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1.1104672</v>
       </c>
@@ -1762,8 +1899,14 @@
       <c r="F20" s="1">
         <v>-30.22</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R20" s="1">
+        <v>9.1043067999999998</v>
+      </c>
+      <c r="S20" s="1">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1.1936183</v>
       </c>
@@ -1776,8 +1919,14 @@
       <c r="F21" s="1">
         <v>-10.38</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R21" s="1">
+        <v>9.6043322999999994</v>
+      </c>
+      <c r="S21" s="1">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1.2861438999999999</v>
       </c>
@@ -1790,8 +1939,14 @@
       <c r="F22" s="1">
         <v>25.04</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R22" s="1">
+        <v>10.1043582</v>
+      </c>
+      <c r="S22" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1.3918181000000001</v>
       </c>
@@ -1804,8 +1959,14 @@
       <c r="F23" s="1">
         <v>11.51</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R23" s="1">
+        <v>10.6200066</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1.4814532</v>
       </c>
@@ -1818,8 +1979,14 @@
       <c r="F24" s="1">
         <v>-30.24</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R24" s="1">
+        <v>11.120033400000001</v>
+      </c>
+      <c r="S24" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1.5846838000000001</v>
       </c>
@@ -1832,8 +1999,14 @@
       <c r="F25" s="1">
         <v>-13.61</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R25" s="1">
+        <v>11.6200621</v>
+      </c>
+      <c r="S25" s="1">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1.6798723</v>
       </c>
@@ -1846,8 +2019,14 @@
       <c r="F26" s="1">
         <v>17.010000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R26" s="1">
+        <v>12.1357138</v>
+      </c>
+      <c r="S26" s="1">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1.7681372</v>
       </c>
@@ -1860,8 +2039,14 @@
       <c r="F27" s="1">
         <v>11.39</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R27" s="1">
+        <v>12.635736400000001</v>
+      </c>
+      <c r="S27" s="1">
+        <v>-0.97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1.8624878</v>
       </c>
@@ -1874,8 +2059,14 @@
       <c r="F28" s="1">
         <v>-23.31</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R28" s="1">
+        <v>13.151388600000001</v>
+      </c>
+      <c r="S28" s="1">
+        <v>-5.39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1.9518724000000001</v>
       </c>
@@ -1888,8 +2079,14 @@
       <c r="F29" s="1">
         <v>-22.74</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R29" s="1">
+        <v>13.652259300000001</v>
+      </c>
+      <c r="S29" s="1">
+        <v>-18.059999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2.0507281000000002</v>
       </c>
@@ -1902,8 +2099,14 @@
       <c r="F30" s="1">
         <v>27.87</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R30" s="1">
+        <v>14.1522848</v>
+      </c>
+      <c r="S30" s="1">
+        <v>-18.71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2.1437303999999999</v>
       </c>
@@ -1916,8 +2119,14 @@
       <c r="F31" s="1">
         <v>10.76</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R31" s="1">
+        <v>14.652311600000001</v>
+      </c>
+      <c r="S31" s="1">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2.2334396999999999</v>
       </c>
@@ -1930,8 +2139,14 @@
       <c r="F32" s="1">
         <v>-28.25</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R32" s="1">
+        <v>15.1679628</v>
+      </c>
+      <c r="S32" s="1">
+        <v>28.55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2.3172005000000002</v>
       </c>
@@ -1944,8 +2159,14 @@
       <c r="F33" s="1">
         <v>-13.67</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R33" s="1">
+        <v>15.667991499999999</v>
+      </c>
+      <c r="S33" s="1">
+        <v>14.77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2.4184508</v>
       </c>
@@ -1958,8 +2179,14 @@
       <c r="F34" s="1">
         <v>23.43</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R34" s="1">
+        <v>16.1788405</v>
+      </c>
+      <c r="S34" s="1">
+        <v>-22.23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2.4988087999999999</v>
       </c>
@@ -1972,8 +2199,14 @@
       <c r="F35" s="1">
         <v>12.63</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R35" s="1">
+        <v>16.6788664</v>
+      </c>
+      <c r="S35" s="1">
+        <v>-21.38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2.6079012000000001</v>
       </c>
@@ -1986,8 +2219,14 @@
       <c r="F36" s="1">
         <v>-22.38</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R36" s="1">
+        <v>17.1788937</v>
+      </c>
+      <c r="S36" s="1">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2.6870528</v>
       </c>
@@ -2000,8 +2239,14 @@
       <c r="F37" s="1">
         <v>-20.51</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R37" s="1">
+        <v>17.678918599999999</v>
+      </c>
+      <c r="S37" s="1">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2.7918015</v>
       </c>
@@ -2014,8 +2259,14 @@
       <c r="F38" s="1">
         <v>21.04</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R38" s="1">
+        <v>18.1789436</v>
+      </c>
+      <c r="S38" s="1">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2.8777534999999999</v>
       </c>
@@ -2028,8 +2279,14 @@
       <c r="F39" s="1">
         <v>16.46</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R39" s="1">
+        <v>18.694597600000002</v>
+      </c>
+      <c r="S39" s="1">
+        <v>-20.89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2.9715060000000002</v>
       </c>
@@ -2042,8 +2299,14 @@
       <c r="F40" s="1">
         <v>-22.09</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R40" s="1">
+        <v>19.1908718</v>
+      </c>
+      <c r="S40" s="1">
+        <v>-12.18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>3.0653663</v>
       </c>
@@ -2056,8 +2319,14 @@
       <c r="F41" s="1">
         <v>-20.05</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R41" s="1">
+        <v>19.690895399999999</v>
+      </c>
+      <c r="S41" s="1">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>3.1630360999999998</v>
       </c>
@@ -2070,8 +2339,14 @@
       <c r="F42" s="1">
         <v>19.739999999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R42" s="1">
+        <v>20.196497000000001</v>
+      </c>
+      <c r="S42" s="1">
+        <v>16.66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>3.2617579000000001</v>
       </c>
@@ -2084,8 +2359,14 @@
       <c r="F43" s="1">
         <v>19.41</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R43" s="1">
+        <v>20.695255899999999</v>
+      </c>
+      <c r="S43" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>3.3516401999999998</v>
       </c>
@@ -2098,8 +2379,14 @@
       <c r="F44" s="1">
         <v>-23.85</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R44" s="1">
+        <v>21.210909000000001</v>
+      </c>
+      <c r="S44" s="1">
+        <v>-13.39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>3.4379314000000001</v>
       </c>
@@ -2112,8 +2399,14 @@
       <c r="F45" s="1">
         <v>-20.82</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R45" s="1">
+        <v>21.710934399999999</v>
+      </c>
+      <c r="S45" s="1">
+        <v>-6.67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>3.5326659</v>
       </c>
@@ -2126,8 +2419,14 @@
       <c r="F46" s="1">
         <v>13.13</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R46" s="1">
+        <v>22.2109612</v>
+      </c>
+      <c r="S46" s="1">
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3.6280260000000002</v>
       </c>
@@ -2140,8 +2439,14 @@
       <c r="F47" s="1">
         <v>22.43</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R47" s="1">
+        <v>22.710986200000001</v>
+      </c>
+      <c r="S47" s="1">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3.7187275999999998</v>
       </c>
@@ -2154,8 +2459,14 @@
       <c r="F48" s="1">
         <v>-18.149999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R48" s="1">
+        <v>23.226638300000001</v>
+      </c>
+      <c r="S48" s="1">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>3.8169805000000001</v>
       </c>
@@ -2168,8 +2479,14 @@
       <c r="F49" s="1">
         <v>-23.43</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R49" s="1">
+        <v>23.726664199999998</v>
+      </c>
+      <c r="S49" s="1">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>3.8987297000000001</v>
       </c>
@@ -2182,8 +2499,14 @@
       <c r="F50" s="1">
         <v>8.02</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R50" s="1">
+        <v>24.226690099999999</v>
+      </c>
+      <c r="S50" s="1">
+        <v>-4.46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>3.9924841</v>
       </c>
@@ -2196,8 +2519,14 @@
       <c r="F51" s="1">
         <v>24.27</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R51" s="1">
+        <v>24.742342300000001</v>
+      </c>
+      <c r="S51" s="1">
+        <v>-3.89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>4.0945479999999996</v>
       </c>
@@ -2210,8 +2539,14 @@
       <c r="F52" s="1">
         <v>-5.7</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R52" s="1">
+        <v>25.242368599999999</v>
+      </c>
+      <c r="S52" s="1">
+        <v>-2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>4.1900718000000001</v>
       </c>
@@ -2224,8 +2559,14 @@
       <c r="F53" s="1">
         <v>-28.31</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R53" s="1">
+        <v>25.758020299999998</v>
+      </c>
+      <c r="S53" s="1">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>4.2816187000000001</v>
       </c>
@@ -2238,8 +2579,14 @@
       <c r="F54" s="1">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R54" s="1">
+        <v>26.258045800000001</v>
+      </c>
+      <c r="S54" s="1">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>4.3852580000000003</v>
       </c>
@@ -2252,8 +2599,14 @@
       <c r="F55" s="1">
         <v>29.66</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R55" s="1">
+        <v>26.7587224</v>
+      </c>
+      <c r="S55" s="1">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>4.4676331999999999</v>
       </c>
@@ -2266,8 +2619,14 @@
       <c r="F56" s="1">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R56" s="1">
+        <v>27.258747899999999</v>
+      </c>
+      <c r="S56" s="1">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>4.5751441000000002</v>
       </c>
@@ -2280,8 +2639,14 @@
       <c r="F57" s="1">
         <v>-25.28</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R57" s="1">
+        <v>27.7744</v>
+      </c>
+      <c r="S57" s="1">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>4.6617147000000001</v>
       </c>
@@ -2294,8 +2659,14 @@
       <c r="F58" s="1">
         <v>5.85</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R58" s="1">
+        <v>28.274426399999999</v>
+      </c>
+      <c r="S58" s="1">
+        <v>-1.56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>4.7521437999999998</v>
       </c>
@@ -2308,8 +2679,14 @@
       <c r="F59" s="1">
         <v>25.95</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R59" s="1">
+        <v>28.790078099999999</v>
+      </c>
+      <c r="S59" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>4.8549518000000003</v>
       </c>
@@ -2322,8 +2699,14 @@
       <c r="F60" s="1">
         <v>-11.65</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R60" s="1">
+        <v>29.2901031</v>
+      </c>
+      <c r="S60" s="1">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>4.9487164000000003</v>
       </c>
@@ -2336,8 +2719,14 @@
       <c r="F61" s="1">
         <v>-28.91</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R61" s="1">
+        <v>29.794646199999999</v>
+      </c>
+      <c r="S61" s="1">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>5.0555764999999999</v>
       </c>
@@ -2350,8 +2739,14 @@
       <c r="F62" s="1">
         <v>2.2599999999999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R62" s="1">
+        <v>30.294673</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>5.1474462000000001</v>
       </c>
@@ -2364,8 +2759,14 @@
       <c r="F63" s="1">
         <v>25.61</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R63" s="1">
+        <v>30.794696600000002</v>
+      </c>
+      <c r="S63" s="1">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>5.2415085000000001</v>
       </c>
@@ -2378,8 +2779,14 @@
       <c r="F64" s="1">
         <v>-12.08</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R64" s="1">
+        <v>31.310351099999998</v>
+      </c>
+      <c r="S64" s="1">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>5.3294762999999996</v>
       </c>
@@ -2392,8 +2799,14 @@
       <c r="F65" s="1">
         <v>-20.92</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R65" s="1">
+        <v>31.810375100000002</v>
+      </c>
+      <c r="S65" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>5.4243274000000001</v>
       </c>
@@ -2406,8 +2819,14 @@
       <c r="F66" s="1">
         <v>8.33</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R66" s="1">
+        <v>32.310399599999997</v>
+      </c>
+      <c r="S66" s="1">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>5.5149575999999998</v>
       </c>
@@ -2420,8 +2839,14 @@
       <c r="F67" s="1">
         <v>27.91</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R67" s="1">
+        <v>32.826053600000002</v>
+      </c>
+      <c r="S67" s="1">
+        <v>-23.31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>5.6163958999999997</v>
       </c>
@@ -2434,8 +2859,14 @@
       <c r="F68" s="1">
         <v>-6.84</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R68" s="1">
+        <v>33.326078099999997</v>
+      </c>
+      <c r="S68" s="1">
+        <v>-24.48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>5.6956581000000002</v>
       </c>
@@ -2448,8 +2879,14 @@
       <c r="F69" s="1">
         <v>-21.71</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R69" s="1">
+        <v>33.841731199999998</v>
+      </c>
+      <c r="S69" s="1">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>5.8065959999999999</v>
       </c>
@@ -2462,8 +2899,14 @@
       <c r="F70" s="1">
         <v>13.27</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R70" s="1">
+        <v>34.326126600000002</v>
+      </c>
+      <c r="S70" s="1">
+        <v>27.94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>5.8993631999999998</v>
       </c>
@@ -2476,8 +2919,14 @@
       <c r="F71" s="1">
         <v>23.37</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R71" s="1">
+        <v>34.845229099999997</v>
+      </c>
+      <c r="S71" s="1">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>5.9831010999999998</v>
       </c>
@@ -2490,8 +2939,14 @@
       <c r="F72" s="1">
         <v>-14.37</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R72" s="1">
+        <v>35.338605800000003</v>
+      </c>
+      <c r="S72" s="1">
+        <v>-16.34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>6.0863490000000002</v>
       </c>
@@ -2504,8 +2959,14 @@
       <c r="F73" s="1">
         <v>-20.55</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R73" s="1">
+        <v>35.854258000000002</v>
+      </c>
+      <c r="S73" s="1">
+        <v>-11.52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>6.1789446000000003</v>
       </c>
@@ -2518,8 +2979,14 @@
       <c r="F74" s="1">
         <v>17.260000000000002</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R74" s="1">
+        <v>36.354286700000003</v>
+      </c>
+      <c r="S74" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>6.2720053</v>
       </c>
@@ -2532,8 +2999,14 @@
       <c r="F75" s="1">
         <v>21.77</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R75" s="1">
+        <v>36.8699388</v>
+      </c>
+      <c r="S75" s="1">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>6.3517256</v>
       </c>
@@ -2546,8 +3019,14 @@
       <c r="F76" s="1">
         <v>-9.82</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R76" s="1">
+        <v>37.369960499999998</v>
+      </c>
+      <c r="S76" s="1">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>6.4610997000000001</v>
       </c>
@@ -2560,8 +3039,14 @@
       <c r="F77" s="1">
         <v>-24.56</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R77" s="1">
+        <v>37.869985499999999</v>
+      </c>
+      <c r="S77" s="1">
+        <v>-3.03</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>6.5550673000000002</v>
       </c>
@@ -2574,8 +3059,14 @@
       <c r="F78" s="1">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R78" s="1">
+        <v>38.385642300000001</v>
+      </c>
+      <c r="S78" s="1">
+        <v>-4.95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>6.6540695000000003</v>
       </c>
@@ -2588,8 +3079,14 @@
       <c r="F79" s="1">
         <v>26.64</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R79" s="1">
+        <v>38.885667300000001</v>
+      </c>
+      <c r="S79" s="1">
+        <v>-1.78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>6.7356610000000003</v>
       </c>
@@ -2602,8 +3099,14 @@
       <c r="F80" s="1">
         <v>-10.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R80" s="1">
+        <v>39.385689399999997</v>
+      </c>
+      <c r="S80" s="1">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>6.8440652000000002</v>
       </c>
@@ -2616,8 +3119,14 @@
       <c r="F81" s="1">
         <v>-31.14</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R81" s="1">
+        <v>39.901340699999999</v>
+      </c>
+      <c r="S81" s="1">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>6.9293272999999997</v>
       </c>
@@ -2630,8 +3139,14 @@
       <c r="F82" s="1">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R82" s="1">
+        <v>40.4013694</v>
+      </c>
+      <c r="S82" s="1">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>7.0333454</v>
       </c>
@@ -2644,8 +3159,14 @@
       <c r="F83" s="1">
         <v>23.62</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R83" s="1">
+        <v>40.9170187</v>
+      </c>
+      <c r="S83" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>7.1230168000000003</v>
       </c>
@@ -2658,8 +3179,14 @@
       <c r="F84" s="1">
         <v>-4.63</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R84" s="1">
+        <v>41.417043700000001</v>
+      </c>
+      <c r="S84" s="1">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>7.2238024999999997</v>
       </c>
@@ -2672,8 +3199,14 @@
       <c r="F85" s="1">
         <v>-28.48</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R85" s="1">
+        <v>41.917076100000003</v>
+      </c>
+      <c r="S85" s="1">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>7.3192041000000003</v>
       </c>
@@ -2686,8 +3219,14 @@
       <c r="F86" s="1">
         <v>-5.0999999999999996</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R86" s="1">
+        <v>42.448348000000003</v>
+      </c>
+      <c r="S86" s="1">
+        <v>-2.95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>7.3983179999999997</v>
       </c>
@@ -2700,8 +3239,14 @@
       <c r="F87" s="1">
         <v>30.32</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="R87" s="1">
+        <v>42.932748099999998</v>
+      </c>
+      <c r="S87" s="1">
+        <v>-1.31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>7.4920719</v>
       </c>
@@ -2715,7 +3260,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>7.595129</v>
       </c>
@@ -2729,7 +3274,7 @@
         <v>-28.78</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>7.6893019000000002</v>
       </c>
@@ -2743,7 +3288,7 @@
         <v>-0.22</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>7.7726459999999999</v>
       </c>
@@ -2757,7 +3302,7 @@
         <v>28.03</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>7.8778462999999999</v>
       </c>
@@ -2771,7 +3316,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>7.9738604999999998</v>
       </c>
@@ -2785,7 +3330,7 @@
         <v>-28.29</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>8.0636369000000006</v>
       </c>
@@ -2799,7 +3344,7 @@
         <v>-4.84</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>8.1582529000000008</v>
       </c>
@@ -2813,7 +3358,7 @@
         <v>25.48</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>8.2473063</v>
       </c>
